--- a/app/rep/Mexico HS Code 21.xlsx
+++ b/app/rep/Mexico HS Code 21.xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>Balanza comercial</t>
+  </si>
+  <si>
+    <t>PAIS ORIGEN: MEXICO</t>
+  </si>
+  <si>
+    <t>POSICION ARANCELARIA: 21 PREPARACIONES ALIMENTICIAS DIVERSAS</t>
+  </si>
+  <si>
+    <t>PERIODO: 2012 - 2014</t>
+  </si>
   <si>
     <t>Periodo</t>
   </si>
@@ -34,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -49,12 +61,30 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,13 +96,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8F5F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFDFD7CA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDFD7CA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDFD7CA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDFD7CA"/>
+      </bottom>
+    </border>
     <border>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -82,11 +132,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -389,10 +445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,58 +459,105 @@
     <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>2012</v>
       </c>
-      <c r="C5">
+      <c r="B8">
+        <v>15518736.32</v>
+      </c>
+      <c r="C8">
         <v>14447812.13</v>
       </c>
-      <c r="D5">
-        <v>14447812.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="D8">
+        <v>-1070924.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>2013</v>
       </c>
-      <c r="C6">
+      <c r="B9">
+        <v>19015241.27</v>
+      </c>
+      <c r="C9">
         <v>13943063.81</v>
       </c>
-      <c r="D6">
-        <v>13943063.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="D9">
+        <v>-5072177.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>2014</v>
       </c>
-      <c r="C7">
+      <c r="B10">
+        <v>16787467.34</v>
+      </c>
+      <c r="C10">
         <v>12292793.74</v>
       </c>
-      <c r="D7">
-        <v>12292793.74</v>
+      <c r="D10">
+        <v>-4494673.6</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/app/rep/Mexico HS Code 21.xlsx
+++ b/app/rep/Mexico HS Code 21.xlsx
@@ -132,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -144,6 +144,12 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +454,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -506,44 +512,44 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>2012</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>15518736.32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>14447812.13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>-1070924.19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>2013</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>19015241.27</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>13943063.81</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>-5072177.46</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>2014</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>16787467.34</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>12292793.74</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>-4494673.6</v>
       </c>
     </row>
